--- a/Group Assignments/STOR320_002_ROSTER.xlsx
+++ b/Group Assignments/STOR320_002_ROSTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 320\STOR320_WEBSITE\Group Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43969C1C-C0A4-4A6D-91C6-8CAC30448B67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F136DB-30DC-4B9F-BF42-99851C152A6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="690" windowWidth="19200" windowHeight="10160" xr2:uid="{95175900-B650-4A50-872F-2F6A177FA7AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{95175900-B650-4A50-872F-2F6A177FA7AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Avent,Trent</t>
   </si>
   <si>
-    <t>Baker,Richard Link</t>
-  </si>
-  <si>
     <t>Banerjee,Rei Vreeto</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Dong,Laura</t>
   </si>
   <si>
-    <t>Fernandez de Retana Sr,Ignacio Piera</t>
-  </si>
-  <si>
     <t>Gambino,Rob Daniel</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>Krishna,Akash S</t>
   </si>
   <si>
-    <t>Li,Bokai</t>
-  </si>
-  <si>
     <t>Liu,Daniel</t>
   </si>
   <si>
@@ -258,9 +249,6 @@
     <t>Yoon,Daniel Junwon</t>
   </si>
   <si>
-    <t>Zhang,Runze</t>
-  </si>
-  <si>
     <t>Zhao,Isabel Zihan</t>
   </si>
   <si>
@@ -268,6 +256,63 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Chitla,Krithik Reddy</t>
+  </si>
+  <si>
+    <t>DiBetta,Ross Mitchell</t>
+  </si>
+  <si>
+    <t>Gao,Valarie</t>
+  </si>
+  <si>
+    <t>Gerdau,Garrett Douglas</t>
+  </si>
+  <si>
+    <t>Gerdau,Geoffrey Daniel</t>
+  </si>
+  <si>
+    <t>Han,Zining</t>
+  </si>
+  <si>
+    <t>Long,Cheng</t>
+  </si>
+  <si>
+    <t>Palka,Matthew</t>
+  </si>
+  <si>
+    <t>Piera Fernandez de Retana Sr,Ignacio</t>
+  </si>
+  <si>
+    <t>Soberano,Jonah Dario</t>
+  </si>
+  <si>
+    <t>Somosky,Katie Dillan</t>
+  </si>
+  <si>
+    <t>Sriperumbudur,Amruth Swamy</t>
+  </si>
+  <si>
+    <t>Sui,Hui</t>
+  </si>
+  <si>
+    <t>Tandon,Mehr</t>
+  </si>
+  <si>
+    <t>Tanna,Varun S</t>
+  </si>
+  <si>
+    <t>Xue,Rui</t>
+  </si>
+  <si>
+    <t>Zhang,Haoyu</t>
+  </si>
+  <si>
+    <t>Zhang,Joe</t>
+  </si>
+  <si>
+    <t>Zhang,Yiran</t>
   </si>
 </sst>
 </file>
@@ -311,13 +356,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,18 +681,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213B59BD-C540-466E-9F4B-0651824871CC}">
-  <dimension ref="A1:A79"/>
+  <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.6328125" customWidth="1"/>
+    <col min="1" max="1" width="34.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -689,352 +739,427 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Group Assignments/STOR320_002_ROSTER.xlsx
+++ b/Group Assignments/STOR320_002_ROSTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 320\STOR320_WEBSITE\Group Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F136DB-30DC-4B9F-BF42-99851C152A6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE80DA3-285E-404C-A555-578C7E39F975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{95175900-B650-4A50-872F-2F6A177FA7AC}"/>
+    <workbookView xWindow="4750" yWindow="2650" windowWidth="19200" windowHeight="10160" xr2:uid="{95175900-B650-4A50-872F-2F6A177FA7AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,288 +31,327 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
-  <si>
-    <t>Avent,Trent</t>
-  </si>
-  <si>
-    <t>Banerjee,Rei Vreeto</t>
-  </si>
-  <si>
-    <t>Bowerman,Kevin</t>
-  </si>
-  <si>
-    <t>Chen,Abby Bubu</t>
-  </si>
-  <si>
-    <t>Chen,Fengyi</t>
-  </si>
-  <si>
-    <t>Chen,Jessica</t>
-  </si>
-  <si>
-    <t>Chen,Jinghan</t>
-  </si>
-  <si>
-    <t>Chen,Michelle Xueying</t>
-  </si>
-  <si>
-    <t>Cho,Jun Jun</t>
-  </si>
-  <si>
-    <t>Civitella Witzke,Amanda</t>
-  </si>
-  <si>
-    <t>Dally,Khala Anne Miranda</t>
-  </si>
-  <si>
-    <t>Dimoulas,Christian</t>
-  </si>
-  <si>
-    <t>Dong,Laura</t>
-  </si>
-  <si>
-    <t>Gambino,Rob Daniel</t>
-  </si>
-  <si>
-    <t>Guillou,Emilie Sue</t>
-  </si>
-  <si>
-    <t>Gupta,Shambhavi</t>
-  </si>
-  <si>
-    <t>Hansen,Paloma</t>
-  </si>
-  <si>
-    <t>Hansen,Sydney Grace</t>
-  </si>
-  <si>
-    <t>Harvey,Michael</t>
-  </si>
-  <si>
-    <t>Hedges,Rachel</t>
-  </si>
-  <si>
-    <t>Heiges,Riley Christopher</t>
-  </si>
-  <si>
-    <t>Herdegen,Kyle Gunther</t>
-  </si>
-  <si>
-    <t>Heyn,Conner Markus</t>
-  </si>
-  <si>
-    <t>Huang,Can</t>
-  </si>
-  <si>
-    <t>Humphreys,Lauren Taylor</t>
-  </si>
-  <si>
-    <t>Imran,Anum</t>
-  </si>
-  <si>
-    <t>Jiang,Yifan</t>
-  </si>
-  <si>
-    <t>Johnson Mata,Kevin</t>
-  </si>
-  <si>
-    <t>Kidwai,Hamza Salman</t>
-  </si>
-  <si>
-    <t>Kotha,Prabhath</t>
-  </si>
-  <si>
-    <t>Krishna,Akash S</t>
-  </si>
-  <si>
-    <t>Liu,Daniel</t>
-  </si>
-  <si>
-    <t>Liu,Dingyuan</t>
-  </si>
-  <si>
-    <t>Liu,Lilly</t>
-  </si>
-  <si>
-    <t>Luhadia,Vishy</t>
-  </si>
-  <si>
-    <t>Mcginnis,Eliot Clifford</t>
-  </si>
-  <si>
-    <t>Murlidhar,Nidhi</t>
-  </si>
-  <si>
-    <t>Nukala,Santosh</t>
-  </si>
-  <si>
-    <t>Onorato,Will Giovanni</t>
-  </si>
-  <si>
-    <t>Oringel,Jake Kramer</t>
-  </si>
-  <si>
-    <t>Patel,Freya Bimal</t>
-  </si>
-  <si>
-    <t>Patel,Kerina</t>
-  </si>
-  <si>
-    <t>Patel,Rohan</t>
-  </si>
-  <si>
-    <t>Patel,Sahaj Prashant</t>
-  </si>
-  <si>
-    <t>Phadnis,Ishaan Kishor</t>
-  </si>
-  <si>
-    <t>Pilsbury,Sam Elwood</t>
-  </si>
-  <si>
-    <t>Pinder,Alexander Joseph</t>
-  </si>
-  <si>
-    <t>Pitts,Henry Robert</t>
-  </si>
-  <si>
-    <t>Poddutoori,Surya</t>
-  </si>
-  <si>
-    <t>Rai,Swadha</t>
-  </si>
-  <si>
-    <t>Rajeshwer,Maanasa</t>
-  </si>
-  <si>
-    <t>Ranganathan,Nethra</t>
-  </si>
-  <si>
-    <t>Rodgers,Ethan</t>
-  </si>
-  <si>
-    <t>Russell,Natalie Lauren</t>
-  </si>
-  <si>
-    <t>Sambandham,Akshay</t>
-  </si>
-  <si>
-    <t>Shi,Jennifer</t>
-  </si>
-  <si>
-    <t>Sinclair,Julianne Elizabeth</t>
-  </si>
-  <si>
-    <t>Skela,Jessica</t>
-  </si>
-  <si>
-    <t>Song,Paul Minsub</t>
-  </si>
-  <si>
-    <t>Song,Ruiyan</t>
-  </si>
-  <si>
-    <t>Swank,Sarah Helen</t>
-  </si>
-  <si>
-    <t>Taffe,Michael John</t>
-  </si>
-  <si>
-    <t>Tedford,Alison Hope</t>
-  </si>
-  <si>
-    <t>Tyagi,Tanvi</t>
-  </si>
-  <si>
-    <t>Vellaringattu,Jiselle James</t>
-  </si>
-  <si>
-    <t>Venkatasubramanian,Deepak</t>
-  </si>
-  <si>
-    <t>Vogel,Ryan Harrison</t>
-  </si>
-  <si>
-    <t>Williams,Joe Henry</t>
-  </si>
-  <si>
-    <t>Wilson,Jake Spencer</t>
-  </si>
-  <si>
-    <t>Wu,Ethan</t>
-  </si>
-  <si>
-    <t>Wu,Katerina</t>
-  </si>
-  <si>
-    <t>Yoon,Daniel Junwon</t>
-  </si>
-  <si>
-    <t>Zhao,Isabel Zihan</t>
-  </si>
-  <si>
-    <t>Zhou,Simon</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Chitla,Krithik Reddy</t>
-  </si>
-  <si>
-    <t>DiBetta,Ross Mitchell</t>
-  </si>
-  <si>
-    <t>Gao,Valarie</t>
-  </si>
-  <si>
-    <t>Gerdau,Garrett Douglas</t>
-  </si>
-  <si>
-    <t>Gerdau,Geoffrey Daniel</t>
-  </si>
-  <si>
-    <t>Han,Zining</t>
-  </si>
-  <si>
-    <t>Long,Cheng</t>
-  </si>
-  <si>
-    <t>Palka,Matthew</t>
-  </si>
-  <si>
-    <t>Piera Fernandez de Retana Sr,Ignacio</t>
-  </si>
-  <si>
-    <t>Soberano,Jonah Dario</t>
-  </si>
-  <si>
-    <t>Somosky,Katie Dillan</t>
-  </si>
-  <si>
-    <t>Sriperumbudur,Amruth Swamy</t>
-  </si>
-  <si>
-    <t>Sui,Hui</t>
-  </si>
-  <si>
-    <t>Tandon,Mehr</t>
-  </si>
-  <si>
-    <t>Tanna,Varun S</t>
-  </si>
-  <si>
-    <t>Xue,Rui</t>
-  </si>
-  <si>
-    <t>Zhang,Haoyu</t>
-  </si>
-  <si>
-    <t>Zhang,Joe</t>
-  </si>
-  <si>
-    <t>Zhang,Yiran</t>
+    <t>Babb,Daniel Paul</t>
+  </si>
+  <si>
+    <t>Baker,Crystal Reshea</t>
+  </si>
+  <si>
+    <t>Basu,Sayak</t>
+  </si>
+  <si>
+    <t>Boggia,Liam Robert</t>
+  </si>
+  <si>
+    <t>Bowen,Daniel Hunter</t>
+  </si>
+  <si>
+    <t>Campbell Jr,Tucker Joseph</t>
+  </si>
+  <si>
+    <t>Campo,Amanda Marie</t>
+  </si>
+  <si>
+    <t>Cao,Hannah Le</t>
+  </si>
+  <si>
+    <t>Chaffin,Ryan Christopher</t>
+  </si>
+  <si>
+    <t>Cheek,Gorrell Nixon</t>
+  </si>
+  <si>
+    <t>Chen,Florence</t>
+  </si>
+  <si>
+    <t>Chen,Rong</t>
+  </si>
+  <si>
+    <t>Chen,Yige</t>
+  </si>
+  <si>
+    <t>Chow,Samuel</t>
+  </si>
+  <si>
+    <t>Claffey,Mckenna</t>
+  </si>
+  <si>
+    <t>Cooper,Harrison Bigelow</t>
+  </si>
+  <si>
+    <t>Cybrynski,Julianna Jeanne</t>
+  </si>
+  <si>
+    <t>Dagar,Ayush</t>
+  </si>
+  <si>
+    <t>Dallin,Jake Wilson</t>
+  </si>
+  <si>
+    <t>Dellamaestra,Ethan Zachary</t>
+  </si>
+  <si>
+    <t>Deng,Michael Taylor</t>
+  </si>
+  <si>
+    <t>Deo,Advaith</t>
+  </si>
+  <si>
+    <t>Deshmukh,Ekta Vilas</t>
+  </si>
+  <si>
+    <t>Dewey,Hayden Scott</t>
+  </si>
+  <si>
+    <t>Dick,Catriona Margaret</t>
+  </si>
+  <si>
+    <t>Donnalley,Matthew</t>
+  </si>
+  <si>
+    <t>Donovan,Will</t>
+  </si>
+  <si>
+    <t>Dowden,Savannah Ruby</t>
+  </si>
+  <si>
+    <t>Fan,Dora</t>
+  </si>
+  <si>
+    <t>Feng,Yue</t>
+  </si>
+  <si>
+    <t>Ferguson,Ian Michael</t>
+  </si>
+  <si>
+    <t>Folk,Connor Alexander</t>
+  </si>
+  <si>
+    <t>Foster,Shannan Leigh</t>
+  </si>
+  <si>
+    <t>Gandecha,Raj Dilip</t>
+  </si>
+  <si>
+    <t>Gao,Christine</t>
+  </si>
+  <si>
+    <t>Gniadek,Jim Christopher</t>
+  </si>
+  <si>
+    <t>Goel,Paarvv</t>
+  </si>
+  <si>
+    <t>Green,Alex</t>
+  </si>
+  <si>
+    <t>Gupta,Vasu</t>
+  </si>
+  <si>
+    <t>Heikke,Brittany</t>
+  </si>
+  <si>
+    <t>Hinks,Izzi Rose</t>
+  </si>
+  <si>
+    <t>Houck,Ava</t>
+  </si>
+  <si>
+    <t>Hua,Mona</t>
+  </si>
+  <si>
+    <t>Jung,Stephanie Dahee</t>
+  </si>
+  <si>
+    <t>Kim,Daniel Dowahn</t>
+  </si>
+  <si>
+    <t>Kolcusky,Katie Anne</t>
+  </si>
+  <si>
+    <t>Krupa,Daniel</t>
+  </si>
+  <si>
+    <t>Kwon,Jinhyun</t>
+  </si>
+  <si>
+    <t>Lee,Harrison Thaddeus</t>
+  </si>
+  <si>
+    <t>Lewis,Austin</t>
+  </si>
+  <si>
+    <t>Lewis,Harrison David</t>
+  </si>
+  <si>
+    <t>Li,Clement Wenshine</t>
+  </si>
+  <si>
+    <t>Lickteig,John Henry</t>
+  </si>
+  <si>
+    <t>Lin,Qiaosen</t>
+  </si>
+  <si>
+    <t>Lindner,Edward Heron</t>
+  </si>
+  <si>
+    <t>Liu,Brian Hung</t>
+  </si>
+  <si>
+    <t>Lo,Ashlee Mylea</t>
+  </si>
+  <si>
+    <t>Lu,Shiting</t>
+  </si>
+  <si>
+    <t>Luo,Bill</t>
+  </si>
+  <si>
+    <t>Lynch,Tim Robert</t>
+  </si>
+  <si>
+    <t>McBride,Duncan Wallace</t>
+  </si>
+  <si>
+    <t>Mccormick,Lauren</t>
+  </si>
+  <si>
+    <t>Min,Amit S</t>
+  </si>
+  <si>
+    <t>Missert,Will Joseph</t>
+  </si>
+  <si>
+    <t>Ni,Johnny</t>
+  </si>
+  <si>
+    <t>Palmer,Nick William</t>
+  </si>
+  <si>
+    <t>Park,Zachary</t>
+  </si>
+  <si>
+    <t>Parks,Gabby Isabella</t>
+  </si>
+  <si>
+    <t>Patel,Vraj Alpesh</t>
+  </si>
+  <si>
+    <t>Patnaik,Shreya</t>
+  </si>
+  <si>
+    <t>Penwell,Alexa Marie</t>
+  </si>
+  <si>
+    <t>Petrova,Gergana</t>
+  </si>
+  <si>
+    <t>Poole,Meredith</t>
+  </si>
+  <si>
+    <t>Puri,Ammar</t>
+  </si>
+  <si>
+    <t>Qin,William</t>
+  </si>
+  <si>
+    <t>Raj,Pruthvi</t>
+  </si>
+  <si>
+    <t>Ramireddy,Keshav</t>
+  </si>
+  <si>
+    <t>Reinisch,Doug Allen</t>
+  </si>
+  <si>
+    <t>Robertson,Jared Andrew</t>
+  </si>
+  <si>
+    <t>Robinson,Drew Phillip</t>
+  </si>
+  <si>
+    <t>Rutter,Jake Kitson</t>
+  </si>
+  <si>
+    <t>Sahasrabudhe,Isha Ravindra</t>
+  </si>
+  <si>
+    <t>Sahor,Mo Momodou</t>
+  </si>
+  <si>
+    <t>Saini,Rupali</t>
+  </si>
+  <si>
+    <t>Shah,Esha</t>
+  </si>
+  <si>
+    <t>Shahzad,Zain</t>
+  </si>
+  <si>
+    <t>Shirolkar,Elina Shailesh</t>
+  </si>
+  <si>
+    <t>Siegel,Lauren</t>
+  </si>
+  <si>
+    <t>Sivaraman,Maitreyi Saradha</t>
+  </si>
+  <si>
+    <t>Son,Joseph</t>
+  </si>
+  <si>
+    <t>Stern,Amelia Rose</t>
+  </si>
+  <si>
+    <t>Tariq,Abroon Ali</t>
+  </si>
+  <si>
+    <t>Tran,Tiffany Kate</t>
+  </si>
+  <si>
+    <t>Tripp,Nicole Grace</t>
+  </si>
+  <si>
+    <t>Velamakanni,Laasya</t>
+  </si>
+  <si>
+    <t>Walicki,Taylor Shae</t>
+  </si>
+  <si>
+    <t>Wang,Charlotte</t>
+  </si>
+  <si>
+    <t>Wang,Yueheng</t>
+  </si>
+  <si>
+    <t>Wang,Zimeng</t>
+  </si>
+  <si>
+    <t>Williams,Christopher Graves</t>
+  </si>
+  <si>
+    <t>Wright,Alec</t>
+  </si>
+  <si>
+    <t>Xiao,Yiran</t>
+  </si>
+  <si>
+    <t>Xu,Linglu</t>
+  </si>
+  <si>
+    <t>Xue,Xinwei</t>
+  </si>
+  <si>
+    <t>Zhang,Yuhan</t>
+  </si>
+  <si>
+    <t>Zhao,Xiangman</t>
   </si>
 </sst>
 </file>
@@ -681,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213B59BD-C540-466E-9F4B-0651824871CC}">
-  <dimension ref="A1:A94"/>
+  <dimension ref="A1:A107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -694,472 +733,537 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>73</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
